--- a/public/xlsx/京津冀.xlsx
+++ b/public/xlsx/京津冀.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -399,13 +399,30 @@
         <v>北京中关村</v>
       </c>
       <c r="C2" t="str">
-        <v>代立旺</v>
+        <v>飞车</v>
       </c>
       <c r="D2" t="str">
-        <v>java</v>
+        <v>安卓</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>京津冀</v>
+      </c>
+      <c r="B3" t="str">
+        <v>北京中关村</v>
+      </c>
+      <c r="C3" t="str">
+        <v>卡罗拉</v>
+      </c>
+      <c r="D3" t="str">
+        <v>安卓</v>
+      </c>
+      <c r="E3">
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>

--- a/public/xlsx/京津冀.xlsx
+++ b/public/xlsx/京津冀.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E12"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -399,13 +399,13 @@
         <v>北京中关村</v>
       </c>
       <c r="C2" t="str">
-        <v>飞车</v>
+        <v>代立旺</v>
       </c>
       <c r="D2" t="str">
-        <v>安卓</v>
+        <v>java</v>
       </c>
       <c r="E2">
-        <v>3.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -416,13 +416,166 @@
         <v>北京中关村</v>
       </c>
       <c r="C3" t="str">
+        <v>学习</v>
+      </c>
+      <c r="D3" t="str">
+        <v>UI设计</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>京津冀</v>
+      </c>
+      <c r="B4" t="str">
+        <v>北京中关村</v>
+      </c>
+      <c r="C4" t="str">
+        <v>黄色</v>
+      </c>
+      <c r="D4" t="str">
+        <v>UI设计</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>京津冀</v>
+      </c>
+      <c r="B5" t="str">
+        <v>北京中关村</v>
+      </c>
+      <c r="C5" t="str">
+        <v>去玩撒收</v>
+      </c>
+      <c r="D5" t="str">
+        <v>UI设计</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>京津冀</v>
+      </c>
+      <c r="B6" t="str">
+        <v>北京中关村</v>
+      </c>
+      <c r="C6" t="str">
+        <v>等待</v>
+      </c>
+      <c r="D6" t="str">
+        <v>UI设计</v>
+      </c>
+      <c r="E6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>京津冀</v>
+      </c>
+      <c r="B7" t="str">
+        <v>北京中关村</v>
+      </c>
+      <c r="C7" t="str">
+        <v>飞车</v>
+      </c>
+      <c r="D7" t="str">
+        <v>安卓</v>
+      </c>
+      <c r="E7">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>京津冀</v>
+      </c>
+      <c r="B8" t="str">
+        <v>北京中关村</v>
+      </c>
+      <c r="C8" t="str">
         <v>卡罗拉</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D8" t="str">
         <v>安卓</v>
       </c>
-      <c r="E3">
+      <c r="E8">
         <v>3.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>京津冀</v>
+      </c>
+      <c r="B9" t="str">
+        <v>北京中关村</v>
+      </c>
+      <c r="C9" t="str">
+        <v>领了</v>
+      </c>
+      <c r="D9" t="str">
+        <v>UI设计</v>
+      </c>
+      <c r="E9">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>京津冀</v>
+      </c>
+      <c r="B10" t="str">
+        <v>北京中关村</v>
+      </c>
+      <c r="C10" t="str">
+        <v>王代理</v>
+      </c>
+      <c r="D10" t="str">
+        <v>安卓</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>京津冀</v>
+      </c>
+      <c r="B11" t="str">
+        <v>北京中关村</v>
+      </c>
+      <c r="C11" t="str">
+        <v>唠嗑</v>
+      </c>
+      <c r="D11" t="str">
+        <v>UI设计</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>京津冀</v>
+      </c>
+      <c r="B12" t="str">
+        <v>北京中关村</v>
+      </c>
+      <c r="C12" t="str">
+        <v>高价</v>
+      </c>
+      <c r="D12" t="str">
+        <v>UI设计</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/public/xlsx/京津冀.xlsx
+++ b/public/xlsx/京津冀.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E3"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -399,13 +399,13 @@
         <v>北京中关村</v>
       </c>
       <c r="C2" t="str">
-        <v>代立旺</v>
+        <v>的撒多多</v>
       </c>
       <c r="D2" t="str">
-        <v>java</v>
+        <v>安卓</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="3">
@@ -416,166 +416,13 @@
         <v>北京中关村</v>
       </c>
       <c r="C3" t="str">
-        <v>学习</v>
+        <v>代立旺</v>
       </c>
       <c r="D3" t="str">
-        <v>UI设计</v>
+        <v>安卓</v>
       </c>
       <c r="E3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>京津冀</v>
-      </c>
-      <c r="B4" t="str">
-        <v>北京中关村</v>
-      </c>
-      <c r="C4" t="str">
-        <v>黄色</v>
-      </c>
-      <c r="D4" t="str">
-        <v>UI设计</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>京津冀</v>
-      </c>
-      <c r="B5" t="str">
-        <v>北京中关村</v>
-      </c>
-      <c r="C5" t="str">
-        <v>去玩撒收</v>
-      </c>
-      <c r="D5" t="str">
-        <v>UI设计</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>京津冀</v>
-      </c>
-      <c r="B6" t="str">
-        <v>北京中关村</v>
-      </c>
-      <c r="C6" t="str">
-        <v>等待</v>
-      </c>
-      <c r="D6" t="str">
-        <v>UI设计</v>
-      </c>
-      <c r="E6">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>京津冀</v>
-      </c>
-      <c r="B7" t="str">
-        <v>北京中关村</v>
-      </c>
-      <c r="C7" t="str">
-        <v>飞车</v>
-      </c>
-      <c r="D7" t="str">
-        <v>安卓</v>
-      </c>
-      <c r="E7">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>京津冀</v>
-      </c>
-      <c r="B8" t="str">
-        <v>北京中关村</v>
-      </c>
-      <c r="C8" t="str">
-        <v>卡罗拉</v>
-      </c>
-      <c r="D8" t="str">
-        <v>安卓</v>
-      </c>
-      <c r="E8">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>京津冀</v>
-      </c>
-      <c r="B9" t="str">
-        <v>北京中关村</v>
-      </c>
-      <c r="C9" t="str">
-        <v>领了</v>
-      </c>
-      <c r="D9" t="str">
-        <v>UI设计</v>
-      </c>
-      <c r="E9">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>京津冀</v>
-      </c>
-      <c r="B10" t="str">
-        <v>北京中关村</v>
-      </c>
-      <c r="C10" t="str">
-        <v>王代理</v>
-      </c>
-      <c r="D10" t="str">
-        <v>安卓</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>京津冀</v>
-      </c>
-      <c r="B11" t="str">
-        <v>北京中关村</v>
-      </c>
-      <c r="C11" t="str">
-        <v>唠嗑</v>
-      </c>
-      <c r="D11" t="str">
-        <v>UI设计</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>京津冀</v>
-      </c>
-      <c r="B12" t="str">
-        <v>北京中关村</v>
-      </c>
-      <c r="C12" t="str">
-        <v>高价</v>
-      </c>
-      <c r="D12" t="str">
-        <v>UI设计</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
   </sheetData>

--- a/public/xlsx/京津冀.xlsx
+++ b/public/xlsx/京津冀.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -399,13 +399,13 @@
         <v>北京中关村</v>
       </c>
       <c r="C2" t="str">
-        <v>的撒多多</v>
+        <v>腹股沟</v>
       </c>
       <c r="D2" t="str">
-        <v>安卓</v>
+        <v>UI设计</v>
       </c>
       <c r="E2">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="3">
@@ -416,12 +416,63 @@
         <v>北京中关村</v>
       </c>
       <c r="C3" t="str">
+        <v>具体</v>
+      </c>
+      <c r="D3" t="str">
+        <v>UI设计</v>
+      </c>
+      <c r="E3">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>京津冀</v>
+      </c>
+      <c r="B4" t="str">
+        <v>北京中关村</v>
+      </c>
+      <c r="C4" t="str">
+        <v>我看看</v>
+      </c>
+      <c r="D4" t="str">
+        <v>UI设计</v>
+      </c>
+      <c r="E4">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>京津冀</v>
+      </c>
+      <c r="B5" t="str">
+        <v>北京中关村</v>
+      </c>
+      <c r="C5" t="str">
+        <v>高丽君</v>
+      </c>
+      <c r="D5" t="str">
+        <v>UI设计</v>
+      </c>
+      <c r="E5">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>京津冀</v>
+      </c>
+      <c r="B6" t="str">
+        <v>北京中关村</v>
+      </c>
+      <c r="C6" t="str">
         <v>代立旺</v>
       </c>
-      <c r="D3" t="str">
-        <v>安卓</v>
-      </c>
-      <c r="E3">
+      <c r="D6" t="str">
+        <v>UI设计</v>
+      </c>
+      <c r="E6">
         <v>3.2</v>
       </c>
     </row>
